--- a/HASSAN ABDI.xlsx
+++ b/HASSAN ABDI.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="720" yWindow="345" windowWidth="17955" windowHeight="11280" activeTab="1"/>
+    <workbookView minimized="1" xWindow="720" yWindow="345" windowWidth="17955" windowHeight="11280" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="NOVEMBER 21" sheetId="1" r:id="rId1"/>
@@ -1527,7 +1527,7 @@
   <dimension ref="A2:J44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1660,10 +1660,12 @@
         <f t="shared" si="0"/>
         <v>4000</v>
       </c>
-      <c r="H7" s="16"/>
+      <c r="H7" s="16">
+        <v>4000</v>
+      </c>
       <c r="I7" s="17">
         <f t="shared" ref="I7:I17" si="1">G7-H7</f>
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="15"/>
     </row>
@@ -1795,10 +1797,12 @@
         <f t="shared" si="0"/>
         <v>9000</v>
       </c>
-      <c r="H12" s="16"/>
+      <c r="H12" s="16">
+        <v>9000</v>
+      </c>
       <c r="I12" s="17">
         <f t="shared" si="1"/>
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="J12" s="15"/>
     </row>
@@ -1822,10 +1826,12 @@
         <f t="shared" si="0"/>
         <v>8000</v>
       </c>
-      <c r="H13" s="16"/>
+      <c r="H13" s="16">
+        <v>8000</v>
+      </c>
       <c r="I13" s="17">
         <f t="shared" si="1"/>
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="J13" s="15"/>
     </row>
@@ -1966,11 +1972,11 @@
       </c>
       <c r="H18" s="16">
         <f t="shared" si="2"/>
-        <v>19000</v>
+        <v>40000</v>
       </c>
       <c r="I18" s="16">
         <f t="shared" si="2"/>
-        <v>31000</v>
+        <v>10000</v>
       </c>
       <c r="J18" s="15">
         <f t="shared" si="2"/>
@@ -2058,7 +2064,7 @@
       </c>
       <c r="G24" s="32">
         <f>H18</f>
-        <v>19000</v>
+        <v>40000</v>
       </c>
       <c r="H24" s="18"/>
       <c r="I24" s="18"/>
@@ -2263,7 +2269,7 @@
       </c>
       <c r="G36" s="38">
         <f>G24+G25+G27-H28</f>
-        <v>9500</v>
+        <v>30500</v>
       </c>
       <c r="H36" s="38">
         <f>SUM(H30:H35)</f>
@@ -2271,7 +2277,7 @@
       </c>
       <c r="I36" s="38">
         <f>G36-H36</f>
-        <v>3500</v>
+        <v>24500</v>
       </c>
       <c r="J36" s="37"/>
     </row>
